--- a/MER PESSOA.xlsx
+++ b/MER PESSOA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas B\Desktop\Cadastro-Pessoa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\EmiteAí\Cadastro-Pessoa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B063AB-649A-4F09-8483-1157D761845C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00148F07-CB7A-4621-97CB-D887209051AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E4FDD6EE-EA46-4266-93B2-13E872E4DB44}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E4FDD6EE-EA46-4266-93B2-13E872E4DB44}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
   <si>
     <t>- fone: String</t>
   </si>
@@ -54,93 +54,9 @@
     <t>- complemento: String</t>
   </si>
   <si>
-    <t>Estado</t>
-  </si>
-  <si>
     <t>&lt;&lt;enum&gt;&gt;</t>
   </si>
   <si>
-    <t>Acre</t>
-  </si>
-  <si>
-    <t>Alagoas</t>
-  </si>
-  <si>
-    <t>Amapá</t>
-  </si>
-  <si>
-    <t>Amazonas</t>
-  </si>
-  <si>
-    <t>Bahia</t>
-  </si>
-  <si>
-    <t>Ceará</t>
-  </si>
-  <si>
-    <t>Espírito Santo</t>
-  </si>
-  <si>
-    <t>Goiás</t>
-  </si>
-  <si>
-    <t>Maranhão</t>
-  </si>
-  <si>
-    <t>Mato Grosso</t>
-  </si>
-  <si>
-    <t>Mato Grosso do Sul</t>
-  </si>
-  <si>
-    <t>Minas Gerais</t>
-  </si>
-  <si>
-    <t>Pará</t>
-  </si>
-  <si>
-    <t>Paraíba</t>
-  </si>
-  <si>
-    <t>Paraná</t>
-  </si>
-  <si>
-    <t>Pernambuco</t>
-  </si>
-  <si>
-    <t>Piauí</t>
-  </si>
-  <si>
-    <t>Rio de Janeiro</t>
-  </si>
-  <si>
-    <t>Rio Grande do Norte</t>
-  </si>
-  <si>
-    <t>Rio Grande do Sul</t>
-  </si>
-  <si>
-    <t>Rondônia</t>
-  </si>
-  <si>
-    <t>Roraima</t>
-  </si>
-  <si>
-    <t>Santa Catarina</t>
-  </si>
-  <si>
-    <t>São Paulo</t>
-  </si>
-  <si>
-    <t>Sergipe</t>
-  </si>
-  <si>
-    <t>Tocantins</t>
-  </si>
-  <si>
-    <t>Distrito Federal</t>
-  </si>
-  <si>
     <t>- cep: String</t>
   </si>
   <si>
@@ -153,9 +69,6 @@
     <t>- nome: String</t>
   </si>
   <si>
-    <t>- estado: Estado</t>
-  </si>
-  <si>
     <t>*</t>
   </si>
   <si>
@@ -172,13 +85,100 @@
   </si>
   <si>
     <t>- pessoa</t>
+  </si>
+  <si>
+    <t>Uf</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>GO</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>PB</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>RJ</t>
+  </si>
+  <si>
+    <t>RN</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>- uf: Uf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +201,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -222,7 +228,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -280,9 +286,7 @@
       </left>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -291,13 +295,90 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
@@ -307,103 +388,6 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -472,89 +456,98 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -876,19 +869,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D952EC3D-6DF5-4383-9B30-B0BB721A3DE5}">
-  <dimension ref="B1:Q39"/>
+  <dimension ref="B1:R39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12:H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="17" width="12.77734375" customWidth="1"/>
-    <col min="18" max="18" width="15.77734375" customWidth="1"/>
+    <col min="3" max="17" width="12.7109375" customWidth="1"/>
+    <col min="18" max="18" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -906,7 +899,7 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -924,7 +917,7 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="4"/>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -938,13 +931,13 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="5"/>
-      <c r="O3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="8"/>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="O3" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="6"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -958,13 +951,14 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="8"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="O4" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="32"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -978,13 +972,14 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="5"/>
-      <c r="O5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="8"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="O5" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="32"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -998,13 +993,16 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="5"/>
-      <c r="O6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="8"/>
-    </row>
-    <row r="7" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="32"/>
+    </row>
+    <row r="7" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1018,199 +1016,223 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="5"/>
-      <c r="O7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="8"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="O7" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="32"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="14"/>
+      <c r="D8" s="29"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="14"/>
+      <c r="H8" s="29"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="14"/>
+      <c r="K8" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="29"/>
       <c r="M8" s="1"/>
       <c r="N8" s="5"/>
-      <c r="O8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="8"/>
-    </row>
-    <row r="9" spans="2:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O8" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="32"/>
+    </row>
+    <row r="9" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="15" t="s">
+      <c r="D9" s="31"/>
+      <c r="E9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="K9" s="15" t="s">
+      <c r="H9" s="31"/>
+      <c r="I9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="L9" s="16"/>
+      <c r="L9" s="31"/>
       <c r="M9" s="1"/>
       <c r="N9" s="5"/>
-      <c r="O9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="8"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="O9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="P9" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="32"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
-      <c r="C10" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21">
+      <c r="C10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="11">
         <v>1</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
       </c>
-      <c r="G10" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="23">
+      <c r="G10" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="13">
         <v>1</v>
       </c>
-      <c r="K10" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L10" s="20"/>
+      <c r="K10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="18"/>
       <c r="M10" s="1"/>
       <c r="N10" s="5"/>
-      <c r="O10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="8"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="O10" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="P10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="32"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="20"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="20"/>
+      <c r="H11" s="18"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="L11" s="20"/>
+      <c r="K11" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="18"/>
       <c r="M11" s="1"/>
       <c r="N11" s="5"/>
-      <c r="O11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="8"/>
-    </row>
-    <row r="12" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="32"/>
+    </row>
+    <row r="12" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="25"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="20"/>
+      <c r="G12" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="18"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="27"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="23"/>
       <c r="M12" s="1"/>
       <c r="N12" s="5"/>
-      <c r="O12" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="8"/>
-    </row>
-    <row r="13" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O12" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="P12" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="32"/>
+    </row>
+    <row r="13" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="20"/>
+      <c r="G13" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="18"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="5"/>
-      <c r="O13" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="8"/>
-    </row>
-    <row r="14" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O13" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="32"/>
+    </row>
+    <row r="14" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="27"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="5"/>
-      <c r="O14" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="8"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="O14" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="P14" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="32"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1224,13 +1246,16 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="5"/>
-      <c r="O15" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="8"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="O15" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="P15" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="32"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1244,13 +1269,16 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="5"/>
-      <c r="O16" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="8"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="O16" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="P16" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="32"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1264,13 +1292,16 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="5"/>
-      <c r="O17" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="8"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="O17" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="P17" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="32"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1284,13 +1315,16 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="5"/>
-      <c r="O18" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="8"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="O18" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="P18" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="32"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1304,13 +1338,16 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="5"/>
-      <c r="O19" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="8"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="O19" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="P19" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="32"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1324,13 +1361,16 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="5"/>
-      <c r="O20" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="8"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="O20" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="P20" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="32"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1344,13 +1384,16 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="5"/>
-      <c r="O21" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="8"/>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="O21" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="P21" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="32"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1364,13 +1407,16 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="5"/>
-      <c r="O22" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="8"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="O22" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="P22" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="32"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1384,13 +1430,16 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="5"/>
-      <c r="O23" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="8"/>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="O23" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="P23" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="32"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1404,13 +1453,16 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="5"/>
-      <c r="O24" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="8"/>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="O24" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="P24" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="32"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1424,13 +1476,16 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="5"/>
-      <c r="O25" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="8"/>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="O25" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="P25" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="32"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1444,13 +1499,16 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="5"/>
-      <c r="O26" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="8"/>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="O26" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="P26" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="32"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1464,13 +1522,16 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="5"/>
-      <c r="O27" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="8"/>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="O27" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="P27" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="32"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1484,13 +1545,16 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="5"/>
-      <c r="O28" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="8"/>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="O28" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="P28" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="32"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1504,13 +1568,16 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="5"/>
-      <c r="O29" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="8"/>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="O29" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="P29" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="32"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1524,13 +1591,15 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="5"/>
-      <c r="O30" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="8"/>
-    </row>
-    <row r="31" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O30" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="P30" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q30" s="6"/>
+    </row>
+    <row r="31" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1544,13 +1613,15 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="5"/>
-      <c r="O31" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="8"/>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="O31" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="P31" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q31" s="6"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1563,12 +1634,12 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="33"/>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="N32" s="14"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="16"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1586,7 +1657,7 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1604,7 +1675,7 @@
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1622,7 +1693,7 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1640,7 +1711,7 @@
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1658,7 +1729,7 @@
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1676,7 +1747,7 @@
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1696,36 +1767,6 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O9:P9"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="O31:P31"/>
@@ -1742,6 +1783,36 @@
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="K10:L10"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
